--- a/outputs-r202/root.xlsx
+++ b/outputs-r202/root.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17154,7 +17154,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17362,7 +17362,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -18740,7 +18740,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -19936,7 +19936,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -20898,7 +20898,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -21470,7 +21470,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -21522,7 +21522,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -21860,7 +21860,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>d__Archaea</t>
+          <t>d__Archaea(reject)</t>
         </is>
       </c>
     </row>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -22406,7 +22406,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -23056,7 +23056,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
@@ -23368,7 +23368,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>d__Bacteria</t>
+          <t>d__Bacteria(reject)</t>
         </is>
       </c>
     </row>
